--- a/Bug_Reports/Login_Testing_Bug_Report.xlsx
+++ b/Bug_Reports/Login_Testing_Bug_Report.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wasana\University\Projects\QA-Portfolio\Bug_Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A649C90E-0316-4C16-8A73-6A26D10BAB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +24,111 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Serverity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>BUG-LG-001</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Web application
+Browser: Chrome
+OS: Windows 11</t>
+  </si>
+  <si>
+    <t>1. Open the login page
+2. Enter password in password field
+3. Click on the show/hide password icon</t>
+  </si>
+  <si>
+    <t>Show/Hide password icon is not displayed in the password field</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Wasana</t>
+  </si>
+  <si>
+    <t>Frontend Dev</t>
+  </si>
+  <si>
+    <t>Test_Artifacts/Screenshots/BUG-LG-001.png</t>
+  </si>
+  <si>
+    <t>Show/Hide password icon should be visible and allow 
+toggling password visibility</t>
+  </si>
+  <si>
+    <t>Screenshot Link</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +151,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +466,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="8" width="45.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="37.77734375" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bug_Reports/Login_Testing_Bug_Report.xlsx
+++ b/Bug_Reports/Login_Testing_Bug_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wasana\University\Projects\QA-Portfolio\Bug_Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A649C90E-0316-4C16-8A73-6A26D10BAB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E4B4EA-C805-4DFA-9BCB-0B591DEDA136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Bug ID</t>
   </si>
@@ -105,6 +105,26 @@
   </si>
   <si>
     <t>Screenshot Link</t>
+  </si>
+  <si>
+    <t>BUG-LG-002</t>
+  </si>
+  <si>
+    <t>The Home Page Banner Not Displayed In Chrome</t>
+  </si>
+  <si>
+    <t>1. Open the login page
+2. Enter password in password field
+3.Click Login</t>
+  </si>
+  <si>
+    <t>Fully Vsibility of Home Page</t>
+  </si>
+  <si>
+    <t>Not Displayed Banner in Home Page</t>
+  </si>
+  <si>
+    <t>Test_Artifacts/Screenshots/BUG-LG-002.png</t>
   </si>
 </sst>
 </file>
@@ -467,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,6 +591,47 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
+    <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bug_Reports/Login_Testing_Bug_Report.xlsx
+++ b/Bug_Reports/Login_Testing_Bug_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wasana\University\Projects\QA-Portfolio\Bug_Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E4B4EA-C805-4DFA-9BCB-0B591DEDA136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D877C4E4-E938-493E-A701-E495545E4701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Bug ID</t>
   </si>
@@ -110,21 +110,27 @@
     <t>BUG-LG-002</t>
   </si>
   <si>
-    <t>The Home Page Banner Not Displayed In Chrome</t>
+    <t>Test_Artifacts/Screenshots/BUG-LG-002.png</t>
+  </si>
+  <si>
+    <t>Login button state behaves incorrectly for invalid credentials</t>
   </si>
   <si>
     <t>1. Open the login page
-2. Enter password in password field
-3.Click Login</t>
-  </si>
-  <si>
-    <t>Fully Vsibility of Home Page</t>
-  </si>
-  <si>
-    <t>Not Displayed Banner in Home Page</t>
-  </si>
-  <si>
-    <t>Test_Artifacts/Screenshots/BUG-LG-002.png</t>
+2. Enter a valid email address
+3. Enter an incorrect password
+4. Observe the Login button state</t>
+  </si>
+  <si>
+    <t>Login button behavior should be correct based on input validation (enable/disable or show validation feedback appropriately)</t>
+  </si>
+  <si>
+    <t>Login button behavior is incorrect and does not respond properly based on input validation rules</t>
+  </si>
+  <si>
+    <t>Web Application
+Browser: Chrome
+OS: Windows 11</t>
   </si>
 </sst>
 </file>
@@ -489,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,12 +597,12 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -608,16 +614,16 @@
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>19</v>
@@ -629,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
